--- a/GEOC/Elementos-y-Trazabilidad.xlsx
+++ b/GEOC/Elementos-y-Trazabilidad.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fenjer\Documents\UTN 2020\Diseño de Sistemas\C#\DDS2020\GEOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0E0CD2-894E-49BD-ACF9-79C8A809E205}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA2664E-3833-4DFC-83B6-65AAFC863C02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27240" yWindow="3960" windowWidth="15600" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elementos del Proyecto" sheetId="1" r:id="rId1"/>
     <sheet name="Trazabilidad y Cumplimientos" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>ID Caso de Uso</t>
   </si>
@@ -89,6 +89,21 @@
   </si>
   <si>
     <t>Justificación de la persistencia relacional o breve explicación de la solución no relacional</t>
+  </si>
+  <si>
+    <t>Cada producto tiene un código GTIN 13</t>
+  </si>
+  <si>
+    <t>Generar orden de compra en formato EDIFACT</t>
+  </si>
+  <si>
+    <t>Generar la orden de compra en formato JSON</t>
+  </si>
+  <si>
+    <t>Que la orden de compra esté disponible en un File Server</t>
+  </si>
+  <si>
+    <t>Producto</t>
   </si>
 </sst>
 </file>
@@ -829,7 +844,7 @@
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -1141,9 +1156,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
@@ -1151,7 +1168,7 @@
     <col min="4" max="4" width="15.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="39.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="3.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="40" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="51.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="4.28515625" customWidth="1"/>
   </cols>
@@ -1195,9 +1212,13 @@
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="9"/>
       <c r="C4" s="29"/>
-      <c r="D4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="E4" s="10"/>
-      <c r="G4" s="9"/>
+      <c r="G4" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -1205,7 +1226,9 @@
       <c r="C5" s="29"/>
       <c r="D5" s="8"/>
       <c r="E5" s="10"/>
-      <c r="G5" s="9"/>
+      <c r="G5" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -1213,7 +1236,9 @@
       <c r="C6" s="29"/>
       <c r="D6" s="8"/>
       <c r="E6" s="10"/>
-      <c r="G6" s="9"/>
+      <c r="G6" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -1221,7 +1246,9 @@
       <c r="C7" s="29"/>
       <c r="D7" s="8"/>
       <c r="E7" s="10"/>
-      <c r="G7" s="9"/>
+      <c r="G7" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -1310,5 +1337,6 @@
     <mergeCell ref="B2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>